--- a/WebContent/importTemp/CarDetailExcel.xlsx
+++ b/WebContent/importTemp/CarDetailExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20295" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,11 +46,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -85,30 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +101,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +139,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -158,63 +192,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +439,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -453,22 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,45 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,151 +556,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -754,6 +770,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1016,179 +1037,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
